--- a/projects/puerto_rico_stoch/data/scenarios.xlsx
+++ b/projects/puerto_rico_stoch/data/scenarios.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9BC159-D5AD-48F1-B10D-5206013AF858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SolverSettings" sheetId="2" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="85">
   <si>
     <t>Scenario</t>
   </si>
@@ -274,12 +275,15 @@
   </si>
   <si>
     <t>WF</t>
+  </si>
+  <si>
+    <t>include_RPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -592,21 +596,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +691,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -772,7 +774,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -855,7 +857,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -938,7 +940,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1021,7 +1023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1104,7 +1106,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1187,7 +1189,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1270,7 +1272,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1351,6 +1353,89 @@
       </c>
       <c r="AA9">
         <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" t="s">
+        <v>40</v>
+      </c>
+      <c r="W10" t="s">
+        <v>40</v>
+      </c>
+      <c r="X10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1360,21 +1445,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" customWidth="1"/>
+    <col min="27" max="27" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1457,7 +1542,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1540,7 +1625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1623,7 +1708,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1706,7 +1791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1789,7 +1874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1872,7 +1957,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1955,7 +2040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2038,7 +2123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2121,7 +2206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2204,7 +2289,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2287,7 +2372,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2370,7 +2455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2405,7 +2490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2428,7 +2513,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
@@ -2451,7 +2536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
@@ -2474,7 +2559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
@@ -2497,7 +2582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -2544,7 +2629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -2591,7 +2676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -2614,7 +2699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -2637,7 +2722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -2684,7 +2769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -2719,7 +2804,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -2754,7 +2839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2789,7 +2874,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2824,7 +2909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2866,20 +2951,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2962,7 +3047,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -3009,7 +3094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -3092,7 +3177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -3175,7 +3260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -3258,7 +3343,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -3341,7 +3426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -3424,7 +3509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -3507,7 +3592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -3590,7 +3675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -3679,22 +3764,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="26" max="27" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="26" max="27" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3777,7 +3862,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -3860,7 +3945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -3943,7 +4028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -4026,7 +4111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -4109,7 +4194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -4192,7 +4277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -4239,7 +4324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -4286,7 +4371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -4369,7 +4454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -4452,7 +4537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -4535,7 +4620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -4618,7 +4703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>

--- a/projects/puerto_rico_stoch/data/scenarios.xlsx
+++ b/projects/puerto_rico_stoch/data/scenarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9BC159-D5AD-48F1-B10D-5206013AF858}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD2830F-B7F8-4B46-A70B-C4F581A78D60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -599,7 +599,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1363,79 +1365,79 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="O10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Q10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="R10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="S10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="T10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="U10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="V10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="W10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="X10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Y10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Z10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AA10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/projects/puerto_rico_stoch/data/scenarios.xlsx
+++ b/projects/puerto_rico_stoch/data/scenarios.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCAE105-6654-4C92-AF06-F36B7AFC56C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC094175-12AF-451D-B7AD-80551F112D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SolverSettings" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="75">
   <si>
     <t>Scenario</t>
   </si>
@@ -236,6 +236,18 @@
   </si>
   <si>
     <t>ZB</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>XD</t>
+  </si>
+  <si>
+    <t>YC</t>
+  </si>
+  <si>
+    <t>ZC</t>
   </si>
 </sst>
 </file>
@@ -251,12 +263,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -271,10 +289,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,7 +586,7 @@
     <col min="2" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -587,28 +606,40 @@
         <v>63</v>
       </c>
       <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" t="s">
         <v>69</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -648,8 +679,20 @@
       <c r="M2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -689,8 +732,20 @@
       <c r="M3" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -730,8 +785,20 @@
       <c r="M4" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -771,8 +838,20 @@
       <c r="M5" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -812,8 +891,20 @@
       <c r="M6" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -853,8 +944,20 @@
       <c r="M7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+      <c r="Q7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -894,8 +997,20 @@
       <c r="M8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>1000</v>
+      </c>
+      <c r="O8">
+        <v>1000</v>
+      </c>
+      <c r="P8">
+        <v>1000</v>
+      </c>
+      <c r="Q8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -935,15 +1050,27 @@
       <c r="M9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>30</v>
+      </c>
+      <c r="O9">
+        <v>30</v>
+      </c>
+      <c r="P9">
+        <v>30</v>
+      </c>
+      <c r="Q9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
@@ -965,15 +1092,27 @@
         <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -985,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,7 +1136,7 @@
     <col min="2" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1017,28 +1156,40 @@
         <v>63</v>
       </c>
       <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" t="s">
         <v>69</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1078,8 +1229,20 @@
       <c r="M2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1119,8 +1282,20 @@
       <c r="M3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1160,8 +1335,20 @@
       <c r="M4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1201,8 +1388,20 @@
       <c r="M5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1242,8 +1441,20 @@
       <c r="M6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1283,8 +1494,20 @@
       <c r="M7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1324,8 +1547,20 @@
       <c r="M8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1365,8 +1600,20 @@
       <c r="M9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1406,8 +1653,20 @@
       <c r="M10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1447,8 +1706,20 @@
       <c r="M11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1488,8 +1759,20 @@
       <c r="M12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1502,17 +1785,17 @@
       <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="H13" t="s">
         <v>27</v>
       </c>
       <c r="L13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1525,17 +1808,17 @@
       <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="H14" t="s">
         <v>27</v>
       </c>
       <c r="L14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1545,14 +1828,14 @@
       <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -1562,14 +1845,14 @@
       <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -1579,14 +1862,14 @@
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1599,17 +1882,17 @@
       <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="H18" t="s">
         <v>27</v>
       </c>
       <c r="L18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1622,17 +1905,17 @@
       <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="H19" t="s">
         <v>27</v>
       </c>
       <c r="L19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1645,17 +1928,17 @@
       <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="H20" t="s">
         <v>27</v>
       </c>
       <c r="L20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1668,17 +1951,17 @@
       <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="H21" t="s">
         <v>27</v>
       </c>
       <c r="L21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1691,17 +1974,29 @@
       <c r="E22" t="s">
         <v>27</v>
       </c>
-      <c r="H22" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
         <v>27</v>
       </c>
       <c r="M22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -1714,17 +2009,29 @@
       <c r="E23" t="s">
         <v>27</v>
       </c>
-      <c r="H23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" t="s">
         <v>27</v>
       </c>
       <c r="M23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N23" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -1737,17 +2044,29 @@
       <c r="E24" t="s">
         <v>27</v>
       </c>
-      <c r="H24" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" t="s">
         <v>27</v>
       </c>
       <c r="M24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1760,17 +2079,29 @@
       <c r="E25" t="s">
         <v>27</v>
       </c>
-      <c r="H25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" t="s">
         <v>27</v>
       </c>
       <c r="M25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N25" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1783,17 +2114,29 @@
       <c r="E26" t="s">
         <v>27</v>
       </c>
-      <c r="H26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" t="s">
         <v>27</v>
       </c>
       <c r="M26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1806,13 +2149,13 @@
       <c r="E27" t="s">
         <v>27</v>
       </c>
-      <c r="H27" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="I27" t="s">
         <v>27</v>
       </c>
       <c r="M27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1824,10 +2167,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1836,7 +2179,7 @@
     <col min="2" max="3" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1856,28 +2199,40 @@
         <v>63</v>
       </c>
       <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" t="s">
         <v>69</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -1893,26 +2248,38 @@
       <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s">
         <v>27</v>
       </c>
       <c r="H2" t="s">
         <v>27</v>
       </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
       <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
       <c r="L2" t="s">
         <v>27</v>
       </c>
       <c r="M2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1952,8 +2319,20 @@
       <c r="M3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -1993,8 +2372,20 @@
       <c r="M4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -2034,8 +2425,20 @@
       <c r="M5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -2075,8 +2478,20 @@
       <c r="M6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -2116,8 +2531,20 @@
       <c r="M7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2157,8 +2584,20 @@
       <c r="M8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -2198,8 +2637,20 @@
       <c r="M9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -2237,6 +2688,18 @@
         <v>27</v>
       </c>
       <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2247,20 +2710,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2280,28 +2743,40 @@
         <v>63</v>
       </c>
       <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" t="s">
         <v>64</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>65</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" t="s">
         <v>69</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -2341,8 +2816,20 @@
       <c r="M2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -2382,8 +2869,20 @@
       <c r="M3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2423,8 +2922,20 @@
       <c r="M4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -2464,8 +2975,20 @@
       <c r="M5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2505,8 +3028,20 @@
       <c r="M6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2516,23 +3051,29 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
       <c r="H7" t="s">
         <v>27</v>
       </c>
       <c r="I7" t="s">
         <v>27</v>
       </c>
-      <c r="L7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2542,23 +3083,29 @@
       <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
       <c r="H8" t="s">
         <v>27</v>
       </c>
       <c r="I8" t="s">
         <v>27</v>
       </c>
-      <c r="L8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -2598,8 +3145,20 @@
       <c r="M9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2639,8 +3198,20 @@
       <c r="M10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -2680,8 +3251,20 @@
       <c r="M11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -2721,8 +3304,20 @@
       <c r="M12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2760,6 +3355,18 @@
         <v>27</v>
       </c>
       <c r="M13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" t="s">
         <v>27</v>
       </c>
     </row>

--- a/projects/puerto_rico_stoch/data/scenarios.xlsx
+++ b/projects/puerto_rico_stoch/data/scenarios.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC094175-12AF-451D-B7AD-80551F112D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2066C212-B2BB-4573-82DF-8A70B7B27866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="76">
   <si>
     <t>Scenario</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>ZC</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -574,19 +577,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8" customWidth="1"/>
+    <col min="2" max="4" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,49 +600,52 @@
         <v>59</v>
       </c>
       <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>73</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -691,8 +697,11 @@
       <c r="Q2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -744,8 +753,11 @@
       <c r="Q3" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -797,8 +809,11 @@
       <c r="Q4" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -850,8 +865,11 @@
       <c r="Q5" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -903,8 +921,11 @@
       <c r="Q6" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -956,8 +977,11 @@
       <c r="Q7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1009,8 +1033,11 @@
       <c r="Q8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1062,8 +1089,11 @@
       <c r="Q9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1073,8 +1103,8 @@
       <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>40</v>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
@@ -1097,8 +1127,8 @@
       <c r="K10" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>27</v>
+      <c r="L10" t="s">
+        <v>40</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>27</v>
@@ -1113,6 +1143,9 @@
         <v>27</v>
       </c>
       <c r="Q10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1124,19 +1157,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8" customWidth="1"/>
+    <col min="2" max="4" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1147,49 +1180,52 @@
         <v>59</v>
       </c>
       <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>73</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1241,8 +1277,11 @@
       <c r="Q2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1294,8 +1333,11 @@
       <c r="Q3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1347,8 +1389,11 @@
       <c r="Q4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1400,8 +1445,11 @@
       <c r="Q5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1453,8 +1501,11 @@
       <c r="Q6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1506,8 +1557,11 @@
       <c r="Q7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1559,8 +1613,11 @@
       <c r="Q8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1612,8 +1669,11 @@
       <c r="Q9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1665,8 +1725,11 @@
       <c r="Q10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1718,8 +1781,11 @@
       <c r="Q11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1771,8 +1837,11 @@
       <c r="Q12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1785,17 +1854,20 @@
       <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1808,17 +1880,20 @@
       <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1828,14 +1903,17 @@
       <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="G15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -1845,14 +1923,17 @@
       <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -1862,14 +1943,17 @@
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="G17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1882,17 +1966,20 @@
       <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="H18" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1905,17 +1992,20 @@
       <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="H19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1928,17 +2018,20 @@
       <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="H20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" t="s">
-        <v>27</v>
-      </c>
-      <c r="O20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,17 +2044,20 @@
       <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="H21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" t="s">
-        <v>27</v>
-      </c>
-      <c r="O21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1971,32 +2067,35 @@
       <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22" t="s">
         <v>27</v>
       </c>
       <c r="F22" t="s">
         <v>27</v>
       </c>
-      <c r="I22" t="s">
+      <c r="G22" t="s">
         <v>27</v>
       </c>
       <c r="J22" t="s">
         <v>27</v>
       </c>
-      <c r="M22" t="s">
+      <c r="K22" t="s">
         <v>27</v>
       </c>
       <c r="N22" t="s">
         <v>27</v>
       </c>
-      <c r="P22" t="s">
+      <c r="O22" t="s">
         <v>27</v>
       </c>
       <c r="Q22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -2006,32 +2105,35 @@
       <c r="C23" t="s">
         <v>27</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23" t="s">
         <v>27</v>
       </c>
       <c r="F23" t="s">
         <v>27</v>
       </c>
-      <c r="I23" t="s">
+      <c r="G23" t="s">
         <v>27</v>
       </c>
       <c r="J23" t="s">
         <v>27</v>
       </c>
-      <c r="M23" t="s">
+      <c r="K23" t="s">
         <v>27</v>
       </c>
       <c r="N23" t="s">
         <v>27</v>
       </c>
-      <c r="P23" t="s">
+      <c r="O23" t="s">
         <v>27</v>
       </c>
       <c r="Q23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -2041,32 +2143,35 @@
       <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24" t="s">
         <v>27</v>
       </c>
       <c r="F24" t="s">
         <v>27</v>
       </c>
-      <c r="I24" t="s">
+      <c r="G24" t="s">
         <v>27</v>
       </c>
       <c r="J24" t="s">
         <v>27</v>
       </c>
-      <c r="M24" t="s">
+      <c r="K24" t="s">
         <v>27</v>
       </c>
       <c r="N24" t="s">
         <v>27</v>
       </c>
-      <c r="P24" t="s">
+      <c r="O24" t="s">
         <v>27</v>
       </c>
       <c r="Q24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2076,32 +2181,35 @@
       <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D25" t="s">
         <v>27</v>
       </c>
       <c r="F25" t="s">
         <v>27</v>
       </c>
-      <c r="I25" t="s">
+      <c r="G25" t="s">
         <v>27</v>
       </c>
       <c r="J25" t="s">
         <v>27</v>
       </c>
-      <c r="M25" t="s">
+      <c r="K25" t="s">
         <v>27</v>
       </c>
       <c r="N25" t="s">
         <v>27</v>
       </c>
-      <c r="P25" t="s">
+      <c r="O25" t="s">
         <v>27</v>
       </c>
       <c r="Q25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2111,32 +2219,35 @@
       <c r="C26" t="s">
         <v>27</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D26" t="s">
         <v>27</v>
       </c>
       <c r="F26" t="s">
         <v>27</v>
       </c>
-      <c r="I26" t="s">
+      <c r="G26" t="s">
         <v>27</v>
       </c>
       <c r="J26" t="s">
         <v>27</v>
       </c>
-      <c r="M26" t="s">
+      <c r="K26" t="s">
         <v>27</v>
       </c>
       <c r="N26" t="s">
         <v>27</v>
       </c>
-      <c r="P26" t="s">
+      <c r="O26" t="s">
         <v>27</v>
       </c>
       <c r="Q26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2146,16 +2257,19 @@
       <c r="C27" t="s">
         <v>27</v>
       </c>
-      <c r="E27" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" t="s">
-        <v>27</v>
-      </c>
-      <c r="M27" t="s">
-        <v>27</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2167,19 +2281,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.33203125" customWidth="1"/>
+    <col min="2" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2190,49 +2304,52 @@
         <v>59</v>
       </c>
       <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>73</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -2251,7 +2368,7 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>27</v>
       </c>
       <c r="I2" t="s">
@@ -2260,7 +2377,7 @@
       <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>27</v>
       </c>
       <c r="M2" t="s">
@@ -2278,8 +2395,11 @@
       <c r="Q2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2331,8 +2451,11 @@
       <c r="Q3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -2384,8 +2507,11 @@
       <c r="Q4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -2437,8 +2563,11 @@
       <c r="Q5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -2490,8 +2619,11 @@
       <c r="Q6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -2543,8 +2675,11 @@
       <c r="Q7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2596,8 +2731,11 @@
       <c r="Q8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -2649,8 +2787,11 @@
       <c r="Q9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -2700,6 +2841,9 @@
         <v>27</v>
       </c>
       <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2710,20 +2854,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="2" max="4" width="9" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2734,49 +2878,52 @@
         <v>59</v>
       </c>
       <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>64</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>65</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>73</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>69</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -2828,8 +2975,11 @@
       <c r="Q2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -2881,8 +3031,11 @@
       <c r="Q3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2934,8 +3087,11 @@
       <c r="Q4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -2987,8 +3143,11 @@
       <c r="Q5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -3040,8 +3199,11 @@
       <c r="Q6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3051,7 +3213,7 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="H7" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="I7" t="s">
@@ -3063,7 +3225,7 @@
       <c r="K7" t="s">
         <v>27</v>
       </c>
-      <c r="O7" t="s">
+      <c r="L7" t="s">
         <v>27</v>
       </c>
       <c r="P7" t="s">
@@ -3072,8 +3234,11 @@
       <c r="Q7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -3083,7 +3248,7 @@
       <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="H8" t="s">
+      <c r="D8" t="s">
         <v>27</v>
       </c>
       <c r="I8" t="s">
@@ -3095,7 +3260,7 @@
       <c r="K8" t="s">
         <v>27</v>
       </c>
-      <c r="O8" t="s">
+      <c r="L8" t="s">
         <v>27</v>
       </c>
       <c r="P8" t="s">
@@ -3104,8 +3269,11 @@
       <c r="Q8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -3157,8 +3325,11 @@
       <c r="Q9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -3210,8 +3381,11 @@
       <c r="Q10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -3263,8 +3437,11 @@
       <c r="Q11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -3316,8 +3493,11 @@
       <c r="Q12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -3367,6 +3547,9 @@
         <v>27</v>
       </c>
       <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" t="s">
         <v>27</v>
       </c>
     </row>

--- a/projects/puerto_rico_stoch/data/scenarios.xlsx
+++ b/projects/puerto_rico_stoch/data/scenarios.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2066C212-B2BB-4573-82DF-8A70B7B27866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16A562D-F5CD-4CAB-BAAD-997C21E8B9B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SolverSettings" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="81">
   <si>
     <t>Scenario</t>
   </si>
@@ -251,6 +251,21 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>WF</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>T2</t>
   </si>
 </sst>
 </file>
@@ -577,19 +592,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8" customWidth="1"/>
+    <col min="2" max="7" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,55 +612,70 @@
         <v>58</v>
       </c>
       <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>68</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>72</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>65</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>73</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>70</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -700,8 +730,23 @@
       <c r="R2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -756,8 +801,23 @@
       <c r="R3" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -812,8 +872,23 @@
       <c r="R4" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -868,8 +943,23 @@
       <c r="R5" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -924,8 +1014,23 @@
       <c r="R6" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -980,8 +1085,23 @@
       <c r="R7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7">
+        <v>100</v>
+      </c>
+      <c r="T7">
+        <v>100</v>
+      </c>
+      <c r="U7">
+        <v>100</v>
+      </c>
+      <c r="V7">
+        <v>100</v>
+      </c>
+      <c r="W7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1036,8 +1156,23 @@
       <c r="R8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8">
+        <v>1000</v>
+      </c>
+      <c r="T8">
+        <v>1000</v>
+      </c>
+      <c r="U8">
+        <v>1000</v>
+      </c>
+      <c r="V8">
+        <v>1000</v>
+      </c>
+      <c r="W8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1092,28 +1227,43 @@
       <c r="R9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9">
+        <v>30</v>
+      </c>
+      <c r="T9">
+        <v>30</v>
+      </c>
+      <c r="U9">
+        <v>30</v>
+      </c>
+      <c r="V9">
+        <v>30</v>
+      </c>
+      <c r="W9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
+      <c r="C10" t="s">
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="H10" t="s">
         <v>40</v>
@@ -1130,22 +1280,37 @@
       <c r="L10" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>27</v>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>40</v>
       </c>
       <c r="R10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1157,19 +1322,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8" customWidth="1"/>
+    <col min="2" max="5" width="8" customWidth="1"/>
+    <col min="6" max="7" width="8.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1177,55 +1343,70 @@
         <v>58</v>
       </c>
       <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>68</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>72</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>65</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>73</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>70</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1280,8 +1461,23 @@
       <c r="R2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1336,8 +1532,23 @@
       <c r="R3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1392,8 +1603,23 @@
       <c r="R4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1448,8 +1674,23 @@
       <c r="R5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1504,8 +1745,23 @@
       <c r="R6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1560,8 +1816,23 @@
       <c r="R7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1616,8 +1887,23 @@
       <c r="R8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1672,8 +1958,23 @@
       <c r="R9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1728,8 +2029,23 @@
       <c r="R10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1784,8 +2100,23 @@
       <c r="R11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1840,8 +2171,23 @@
       <c r="R12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1857,17 +2203,26 @@
       <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="I13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1883,17 +2238,26 @@
       <c r="E14" t="s">
         <v>27</v>
       </c>
-      <c r="I14" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1906,14 +2270,23 @@
       <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -1926,14 +2299,23 @@
       <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="H16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -1946,14 +2328,23 @@
       <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="H17" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1969,17 +2360,29 @@
       <c r="E18" t="s">
         <v>27</v>
       </c>
-      <c r="I18" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1995,17 +2398,29 @@
       <c r="E19" t="s">
         <v>27</v>
       </c>
-      <c r="I19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" t="s">
+        <v>27</v>
+      </c>
+      <c r="U19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -2021,17 +2436,26 @@
       <c r="E20" t="s">
         <v>27</v>
       </c>
-      <c r="I20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" t="s">
-        <v>27</v>
-      </c>
-      <c r="P20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" t="s">
+        <v>27</v>
+      </c>
+      <c r="U20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -2047,17 +2471,26 @@
       <c r="E21" t="s">
         <v>27</v>
       </c>
-      <c r="I21" t="s">
-        <v>27</v>
-      </c>
-      <c r="M21" t="s">
-        <v>27</v>
-      </c>
-      <c r="P21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" t="s">
+        <v>27</v>
+      </c>
+      <c r="U21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -2070,32 +2503,41 @@
       <c r="D22" t="s">
         <v>27</v>
       </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
       <c r="F22" t="s">
         <v>27</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
       </c>
+      <c r="I22" t="s">
+        <v>27</v>
+      </c>
       <c r="J22" t="s">
         <v>27</v>
       </c>
-      <c r="K22" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" t="s">
-        <v>27</v>
-      </c>
       <c r="O22" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" t="s">
-        <v>27</v>
-      </c>
-      <c r="R22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P22" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22" t="s">
+        <v>27</v>
+      </c>
+      <c r="V22" t="s">
+        <v>27</v>
+      </c>
+      <c r="W22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -2108,32 +2550,41 @@
       <c r="D23" t="s">
         <v>27</v>
       </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
       <c r="F23" t="s">
         <v>27</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
       </c>
+      <c r="I23" t="s">
+        <v>27</v>
+      </c>
       <c r="J23" t="s">
         <v>27</v>
       </c>
-      <c r="K23" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" t="s">
-        <v>27</v>
-      </c>
       <c r="O23" t="s">
         <v>27</v>
       </c>
-      <c r="Q23" t="s">
-        <v>27</v>
-      </c>
-      <c r="R23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P23" t="s">
+        <v>27</v>
+      </c>
+      <c r="S23" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" t="s">
+        <v>27</v>
+      </c>
+      <c r="V23" t="s">
+        <v>27</v>
+      </c>
+      <c r="W23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -2146,32 +2597,44 @@
       <c r="D24" t="s">
         <v>27</v>
       </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
       <c r="F24" t="s">
         <v>27</v>
       </c>
       <c r="G24" t="s">
         <v>27</v>
       </c>
+      <c r="I24" t="s">
+        <v>27</v>
+      </c>
       <c r="J24" t="s">
         <v>27</v>
       </c>
-      <c r="K24" t="s">
-        <v>27</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="M24" t="s">
         <v>27</v>
       </c>
       <c r="O24" t="s">
         <v>27</v>
       </c>
-      <c r="Q24" t="s">
-        <v>27</v>
-      </c>
-      <c r="R24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P24" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24" t="s">
+        <v>27</v>
+      </c>
+      <c r="V24" t="s">
+        <v>27</v>
+      </c>
+      <c r="W24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2184,32 +2647,44 @@
       <c r="D25" t="s">
         <v>27</v>
       </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
       <c r="F25" t="s">
         <v>27</v>
       </c>
       <c r="G25" t="s">
         <v>27</v>
       </c>
+      <c r="I25" t="s">
+        <v>27</v>
+      </c>
       <c r="J25" t="s">
         <v>27</v>
       </c>
-      <c r="K25" t="s">
-        <v>27</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="M25" t="s">
         <v>27</v>
       </c>
       <c r="O25" t="s">
         <v>27</v>
       </c>
-      <c r="Q25" t="s">
-        <v>27</v>
-      </c>
-      <c r="R25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P25" t="s">
+        <v>27</v>
+      </c>
+      <c r="S25" t="s">
+        <v>27</v>
+      </c>
+      <c r="T25" t="s">
+        <v>27</v>
+      </c>
+      <c r="V25" t="s">
+        <v>27</v>
+      </c>
+      <c r="W25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2222,54 +2697,63 @@
       <c r="D26" t="s">
         <v>27</v>
       </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
       <c r="F26" t="s">
         <v>27</v>
       </c>
       <c r="G26" t="s">
         <v>27</v>
       </c>
+      <c r="I26" t="s">
+        <v>27</v>
+      </c>
       <c r="J26" t="s">
         <v>27</v>
       </c>
-      <c r="K26" t="s">
-        <v>27</v>
-      </c>
-      <c r="N26" t="s">
-        <v>27</v>
-      </c>
       <c r="O26" t="s">
         <v>27</v>
       </c>
-      <c r="Q26" t="s">
-        <v>27</v>
-      </c>
-      <c r="R26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+      <c r="S26" t="s">
+        <v>27</v>
+      </c>
+      <c r="T26" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26" t="s">
+        <v>27</v>
+      </c>
+      <c r="W26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
       <c r="D27" t="s">
         <v>27</v>
       </c>
       <c r="F27" t="s">
         <v>27</v>
       </c>
-      <c r="J27" t="s">
-        <v>27</v>
-      </c>
-      <c r="N27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="I27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" t="s">
+        <v>27</v>
+      </c>
+      <c r="V27" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2281,19 +2765,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="M3" sqref="M3:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" customWidth="1"/>
+    <col min="2" max="7" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2301,55 +2785,70 @@
         <v>58</v>
       </c>
       <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>68</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>72</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>65</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>73</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>70</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -2371,18 +2870,15 @@
       <c r="G2" t="s">
         <v>27</v>
       </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
       <c r="I2" t="s">
         <v>27</v>
       </c>
       <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
       <c r="N2" t="s">
         <v>27</v>
       </c>
@@ -2392,14 +2888,26 @@
       <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" t="s">
-        <v>27</v>
-      </c>
       <c r="R2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2454,8 +2962,23 @@
       <c r="R3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -2510,8 +3033,23 @@
       <c r="R4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -2566,8 +3104,23 @@
       <c r="R5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -2622,8 +3175,23 @@
       <c r="R6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -2678,8 +3246,23 @@
       <c r="R7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2734,8 +3317,23 @@
       <c r="R8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -2790,8 +3388,23 @@
       <c r="R9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -2844,6 +3457,21 @@
         <v>27</v>
       </c>
       <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2854,20 +3482,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="2" max="7" width="9" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2875,55 +3503,70 @@
         <v>58</v>
       </c>
       <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>71</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
         <v>66</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>67</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>68</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>72</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>65</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>73</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>70</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -2978,8 +3621,23 @@
       <c r="R2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -3034,8 +3692,23 @@
       <c r="R3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -3090,8 +3763,23 @@
       <c r="R4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -3146,8 +3834,23 @@
       <c r="R5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -3202,8 +3905,23 @@
       <c r="R6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3216,16 +3934,19 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" t="s">
         <v>27</v>
       </c>
       <c r="P7" t="s">
@@ -3234,11 +3955,17 @@
       <c r="Q7" t="s">
         <v>27</v>
       </c>
-      <c r="R7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -3251,16 +3978,19 @@
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" t="s">
         <v>27</v>
       </c>
       <c r="P8" t="s">
@@ -3269,11 +3999,17 @@
       <c r="Q8" t="s">
         <v>27</v>
       </c>
-      <c r="R8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="U8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -3328,8 +4064,23 @@
       <c r="R9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -3384,8 +4135,23 @@
       <c r="R10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -3440,8 +4206,23 @@
       <c r="R11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -3496,8 +4277,23 @@
       <c r="R12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -3550,6 +4346,21 @@
         <v>27</v>
       </c>
       <c r="R13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" t="s">
+        <v>27</v>
+      </c>
+      <c r="V13" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" t="s">
         <v>27</v>
       </c>
     </row>

--- a/projects/puerto_rico_stoch/data/scenarios.xlsx
+++ b/projects/puerto_rico_stoch/data/scenarios.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16A562D-F5CD-4CAB-BAAD-997C21E8B9B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282951F4-EB86-4268-9A26-1EF76F9F4998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SolverSettings" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="87">
   <si>
     <t>Scenario</t>
   </si>
@@ -266,6 +266,24 @@
   </si>
   <si>
     <t>T2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>V4</t>
   </si>
 </sst>
 </file>
@@ -592,19 +610,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="8" customWidth="1"/>
+    <col min="2" max="13" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,67 +633,85 @@
         <v>80</v>
       </c>
       <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>78</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>76</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>77</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>66</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>67</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>65</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>73</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>69</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>70</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -745,8 +781,26 @@
       <c r="W2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -816,8 +870,26 @@
       <c r="W3" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -887,8 +959,26 @@
       <c r="W4" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -958,8 +1048,26 @@
       <c r="W5" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1029,8 +1137,26 @@
       <c r="W6" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1100,8 +1226,26 @@
       <c r="W7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X7">
+        <v>100</v>
+      </c>
+      <c r="Y7">
+        <v>100</v>
+      </c>
+      <c r="Z7">
+        <v>100</v>
+      </c>
+      <c r="AA7">
+        <v>100</v>
+      </c>
+      <c r="AB7">
+        <v>100</v>
+      </c>
+      <c r="AC7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1171,8 +1315,26 @@
       <c r="W8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X8">
+        <v>1000</v>
+      </c>
+      <c r="Y8">
+        <v>1000</v>
+      </c>
+      <c r="Z8">
+        <v>1000</v>
+      </c>
+      <c r="AA8">
+        <v>1000</v>
+      </c>
+      <c r="AB8">
+        <v>1000</v>
+      </c>
+      <c r="AC8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1242,8 +1404,26 @@
       <c r="W9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X9">
+        <v>30</v>
+      </c>
+      <c r="Y9">
+        <v>30</v>
+      </c>
+      <c r="Z9">
+        <v>30</v>
+      </c>
+      <c r="AA9">
+        <v>30</v>
+      </c>
+      <c r="AB9">
+        <v>30</v>
+      </c>
+      <c r="AC9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1253,11 +1433,11 @@
       <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>27</v>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>27</v>
@@ -1265,23 +1445,23 @@
       <c r="G10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" t="s">
-        <v>40</v>
+      <c r="H10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="N10" t="s">
         <v>40</v>
@@ -1295,22 +1475,40 @@
       <c r="Q10" t="s">
         <v>40</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W10" s="3" t="s">
+      <c r="R10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" t="s">
+        <v>40</v>
+      </c>
+      <c r="W10" t="s">
+        <v>40</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1322,20 +1520,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8" customWidth="1"/>
-    <col min="6" max="7" width="8.21875" customWidth="1"/>
+    <col min="2" max="9" width="8" customWidth="1"/>
+    <col min="10" max="13" width="8.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1346,67 +1544,85 @@
         <v>80</v>
       </c>
       <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>78</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>76</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>77</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>66</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>67</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>65</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>73</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>69</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>70</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1476,8 +1692,26 @@
       <c r="W2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1547,8 +1781,26 @@
       <c r="W3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1618,8 +1870,26 @@
       <c r="W4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1689,8 +1959,26 @@
       <c r="W5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1760,8 +2048,26 @@
       <c r="W6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1831,8 +2137,26 @@
       <c r="W7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1902,8 +2226,26 @@
       <c r="W8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1973,8 +2315,26 @@
       <c r="W9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2044,8 +2404,26 @@
       <c r="W10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2115,8 +2493,26 @@
       <c r="W11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2186,8 +2582,26 @@
       <c r="W12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2212,17 +2626,35 @@
       <c r="H13" t="s">
         <v>27</v>
       </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
       <c r="N13" t="s">
         <v>27</v>
       </c>
-      <c r="R13" t="s">
-        <v>27</v>
-      </c>
-      <c r="U13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2247,17 +2679,35 @@
       <c r="H14" t="s">
         <v>27</v>
       </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
       <c r="N14" t="s">
         <v>27</v>
       </c>
-      <c r="R14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T14" t="s">
+        <v>27</v>
+      </c>
+      <c r="X14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,14 +2729,32 @@
       <c r="G15" t="s">
         <v>27</v>
       </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
       <c r="K15" t="s">
         <v>27</v>
       </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s">
+        <v>27</v>
+      </c>
       <c r="Q15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -2308,14 +2776,32 @@
       <c r="G16" t="s">
         <v>27</v>
       </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
       <c r="K16" t="s">
         <v>27</v>
       </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" t="s">
+        <v>27</v>
+      </c>
       <c r="Q16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -2337,14 +2823,32 @@
       <c r="G17" t="s">
         <v>27</v>
       </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
       <c r="K17" t="s">
         <v>27</v>
       </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" t="s">
+        <v>27</v>
+      </c>
       <c r="Q17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="W17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -2369,20 +2873,38 @@
       <c r="H18" t="s">
         <v>27</v>
       </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
       <c r="L18" t="s">
         <v>27</v>
       </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
       <c r="N18" t="s">
         <v>27</v>
       </c>
       <c r="R18" t="s">
         <v>27</v>
       </c>
-      <c r="U18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T18" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -2407,20 +2929,38 @@
       <c r="H19" t="s">
         <v>27</v>
       </c>
+      <c r="I19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
       <c r="L19" t="s">
         <v>27</v>
       </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
       <c r="N19" t="s">
         <v>27</v>
       </c>
       <c r="R19" t="s">
         <v>27</v>
       </c>
-      <c r="U19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T19" t="s">
+        <v>27</v>
+      </c>
+      <c r="X19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -2445,17 +2985,35 @@
       <c r="H20" t="s">
         <v>27</v>
       </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="s">
+        <v>27</v>
+      </c>
       <c r="N20" t="s">
         <v>27</v>
       </c>
-      <c r="R20" t="s">
-        <v>27</v>
-      </c>
-      <c r="U20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T20" t="s">
+        <v>27</v>
+      </c>
+      <c r="X20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -2480,17 +3038,35 @@
       <c r="H21" t="s">
         <v>27</v>
       </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="s">
+        <v>27</v>
+      </c>
       <c r="N21" t="s">
         <v>27</v>
       </c>
-      <c r="R21" t="s">
-        <v>27</v>
-      </c>
-      <c r="U21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="T21" t="s">
+        <v>27</v>
+      </c>
+      <c r="X21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -2512,32 +3088,50 @@
       <c r="G22" t="s">
         <v>27</v>
       </c>
+      <c r="H22" t="s">
+        <v>27</v>
+      </c>
       <c r="I22" t="s">
         <v>27</v>
       </c>
       <c r="J22" t="s">
         <v>27</v>
       </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" t="s">
+        <v>27</v>
+      </c>
       <c r="O22" t="s">
         <v>27</v>
       </c>
       <c r="P22" t="s">
         <v>27</v>
       </c>
-      <c r="S22" t="s">
-        <v>27</v>
-      </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>27</v>
       </c>
       <c r="V22" t="s">
         <v>27</v>
       </c>
-      <c r="W22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -2559,32 +3153,50 @@
       <c r="G23" t="s">
         <v>27</v>
       </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
       <c r="I23" t="s">
         <v>27</v>
       </c>
       <c r="J23" t="s">
         <v>27</v>
       </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" t="s">
+        <v>27</v>
+      </c>
       <c r="O23" t="s">
         <v>27</v>
       </c>
       <c r="P23" t="s">
         <v>27</v>
       </c>
-      <c r="S23" t="s">
-        <v>27</v>
-      </c>
-      <c r="T23" t="s">
+      <c r="U23" t="s">
         <v>27</v>
       </c>
       <c r="V23" t="s">
         <v>27</v>
       </c>
-      <c r="W23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -2606,12 +3218,21 @@
       <c r="G24" t="s">
         <v>27</v>
       </c>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
       <c r="I24" t="s">
         <v>27</v>
       </c>
       <c r="J24" t="s">
         <v>27</v>
       </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>27</v>
+      </c>
       <c r="M24" t="s">
         <v>27</v>
       </c>
@@ -2624,17 +3245,26 @@
       <c r="S24" t="s">
         <v>27</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>27</v>
       </c>
       <c r="V24" t="s">
         <v>27</v>
       </c>
-      <c r="W24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2656,12 +3286,21 @@
       <c r="G25" t="s">
         <v>27</v>
       </c>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
       <c r="I25" t="s">
         <v>27</v>
       </c>
       <c r="J25" t="s">
         <v>27</v>
       </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>27</v>
+      </c>
       <c r="M25" t="s">
         <v>27</v>
       </c>
@@ -2674,17 +3313,26 @@
       <c r="S25" t="s">
         <v>27</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>27</v>
       </c>
       <c r="V25" t="s">
         <v>27</v>
       </c>
-      <c r="W25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2706,32 +3354,50 @@
       <c r="G26" t="s">
         <v>27</v>
       </c>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
       <c r="I26" t="s">
         <v>27</v>
       </c>
       <c r="J26" t="s">
         <v>27</v>
       </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" t="s">
+        <v>27</v>
+      </c>
       <c r="O26" t="s">
         <v>27</v>
       </c>
       <c r="P26" t="s">
         <v>27</v>
       </c>
-      <c r="S26" t="s">
-        <v>27</v>
-      </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>27</v>
       </c>
       <c r="V26" t="s">
         <v>27</v>
       </c>
-      <c r="W26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2744,16 +3410,25 @@
       <c r="F27" t="s">
         <v>27</v>
       </c>
-      <c r="I27" t="s">
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
         <v>27</v>
       </c>
       <c r="O27" t="s">
         <v>27</v>
       </c>
-      <c r="S27" t="s">
-        <v>27</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="U27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB27" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2765,19 +3440,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M10"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="10.33203125" customWidth="1"/>
+    <col min="2" max="13" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2788,67 +3463,85 @@
         <v>80</v>
       </c>
       <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>78</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>76</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>77</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>66</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>67</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>65</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>73</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>69</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>70</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -2879,6 +3572,15 @@
       <c r="J2" t="s">
         <v>27</v>
       </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
       <c r="N2" t="s">
         <v>27</v>
       </c>
@@ -2888,12 +3590,6 @@
       <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" t="s">
-        <v>27</v>
-      </c>
       <c r="T2" t="s">
         <v>27</v>
       </c>
@@ -2903,11 +3599,26 @@
       <c r="V2" t="s">
         <v>27</v>
       </c>
-      <c r="W2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2977,8 +3688,26 @@
       <c r="W3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -3048,8 +3777,26 @@
       <c r="W4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -3119,8 +3866,26 @@
       <c r="W5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -3190,8 +3955,26 @@
       <c r="W6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -3261,8 +4044,26 @@
       <c r="W7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -3332,8 +4133,26 @@
       <c r="W8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -3403,8 +4222,26 @@
       <c r="W9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -3472,6 +4309,24 @@
         <v>27</v>
       </c>
       <c r="W10" t="s">
+        <v>27</v>
+      </c>
+      <c r="X10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3482,20 +4337,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:AC13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="9" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" customWidth="1"/>
+    <col min="2" max="13" width="9" customWidth="1"/>
+    <col min="24" max="24" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3506,67 +4361,85 @@
         <v>80</v>
       </c>
       <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
         <v>75</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>78</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
         <v>76</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
         <v>77</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
         <v>66</v>
       </c>
-      <c r="O1" t="s">
+      <c r="U1" t="s">
         <v>67</v>
       </c>
-      <c r="P1" t="s">
+      <c r="V1" t="s">
         <v>68</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>72</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
         <v>64</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Y1" t="s">
         <v>65</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Z1" t="s">
         <v>73</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AA1" t="s">
         <v>69</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AB1" t="s">
         <v>70</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AC1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -3636,8 +4509,26 @@
       <c r="W2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -3707,8 +4598,26 @@
       <c r="W3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -3778,8 +4687,26 @@
       <c r="W4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -3849,8 +4776,26 @@
       <c r="W5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -3920,8 +4865,26 @@
       <c r="W6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -3943,16 +4906,25 @@
       <c r="G7" t="s">
         <v>27</v>
       </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" t="s">
         <v>27</v>
       </c>
       <c r="U7" t="s">
@@ -3964,8 +4936,17 @@
       <c r="W7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -3987,16 +4968,25 @@
       <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="N8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" t="s">
         <v>27</v>
       </c>
       <c r="U8" t="s">
@@ -4008,8 +4998,17 @@
       <c r="W8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AA8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -4079,8 +5078,26 @@
       <c r="W9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -4150,8 +5167,26 @@
       <c r="W10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -4221,8 +5256,26 @@
       <c r="W11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -4292,8 +5345,26 @@
       <c r="W12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -4361,6 +5432,24 @@
         <v>27</v>
       </c>
       <c r="W13" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC13" t="s">
         <v>27</v>
       </c>
     </row>

--- a/projects/puerto_rico_stoch/data/scenarios.xlsx
+++ b/projects/puerto_rico_stoch/data/scenarios.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BCB4D8-5A16-4280-8414-3156F2F37376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5545412-B64C-4AE8-B07B-C5D95CB9D3A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SolverSettings" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="79">
   <si>
     <t>Scenario</t>
   </si>
@@ -242,6 +242,24 @@
   </si>
   <si>
     <t>WF</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AF</t>
   </si>
 </sst>
 </file>
@@ -568,19 +586,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8" customWidth="1"/>
+    <col min="2" max="4" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,43 +609,61 @@
         <v>59</v>
       </c>
       <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>70</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>67</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -673,8 +709,26 @@
       <c r="O2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -720,8 +774,26 @@
       <c r="O3" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -767,8 +839,26 @@
       <c r="O4" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -814,8 +904,26 @@
       <c r="O5" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -861,8 +969,26 @@
       <c r="O6" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -908,8 +1034,26 @@
       <c r="O7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>100</v>
+      </c>
+      <c r="Q7">
+        <v>100</v>
+      </c>
+      <c r="R7">
+        <v>100</v>
+      </c>
+      <c r="S7">
+        <v>100</v>
+      </c>
+      <c r="T7">
+        <v>100</v>
+      </c>
+      <c r="U7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -955,8 +1099,26 @@
       <c r="O8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8">
+        <v>1000</v>
+      </c>
+      <c r="Q8">
+        <v>1000</v>
+      </c>
+      <c r="R8">
+        <v>1000</v>
+      </c>
+      <c r="S8">
+        <v>1000</v>
+      </c>
+      <c r="T8">
+        <v>1000</v>
+      </c>
+      <c r="U8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1002,8 +1164,26 @@
       <c r="O9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9">
+        <v>30</v>
+      </c>
+      <c r="Q9">
+        <v>30</v>
+      </c>
+      <c r="R9">
+        <v>30</v>
+      </c>
+      <c r="S9">
+        <v>30</v>
+      </c>
+      <c r="T9">
+        <v>30</v>
+      </c>
+      <c r="U9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1013,7 +1193,7 @@
       <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E10" t="s">
@@ -1037,8 +1217,8 @@
       <c r="K10" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>27</v>
+      <c r="L10" t="s">
+        <v>40</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>27</v>
@@ -1048,6 +1228,24 @@
       </c>
       <c r="O10" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S10" t="s">
+        <v>40</v>
+      </c>
+      <c r="T10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1058,19 +1256,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="G22" sqref="G22:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8" customWidth="1"/>
+    <col min="2" max="4" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1081,43 +1279,61 @@
         <v>59</v>
       </c>
       <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>70</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>67</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1163,8 +1379,26 @@
       <c r="O2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1210,8 +1444,26 @@
       <c r="O3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1257,8 +1509,26 @@
       <c r="O4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1304,8 +1574,26 @@
       <c r="O5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1351,8 +1639,26 @@
       <c r="O6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1398,8 +1704,26 @@
       <c r="O7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1445,8 +1769,26 @@
       <c r="O8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1492,8 +1834,26 @@
       <c r="O9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1539,8 +1899,26 @@
       <c r="O10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1586,8 +1964,26 @@
       <c r="O11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1633,8 +2029,26 @@
       <c r="O12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1647,17 +2061,23 @@
       <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="I13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1670,17 +2090,23 @@
       <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="I14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1690,14 +2116,20 @@
       <c r="C15" t="s">
         <v>27</v>
       </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -1707,14 +2139,20 @@
       <c r="C16" t="s">
         <v>27</v>
       </c>
-      <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -1724,14 +2162,20 @@
       <c r="C17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1744,20 +2188,29 @@
       <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1770,20 +2223,29 @@
       <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1796,17 +2258,23 @@
       <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="I20" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -1819,17 +2287,23 @@
       <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="I21" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1839,20 +2313,26 @@
       <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" t="s">
-        <v>27</v>
-      </c>
-      <c r="O22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
@@ -1862,20 +2342,26 @@
       <c r="C23" t="s">
         <v>27</v>
       </c>
-      <c r="E23" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" t="s">
-        <v>27</v>
-      </c>
-      <c r="M23" t="s">
-        <v>27</v>
-      </c>
-      <c r="O23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -1885,23 +2371,32 @@
       <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="E24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" t="s">
-        <v>27</v>
-      </c>
-      <c r="O24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" t="s">
+        <v>27</v>
+      </c>
+      <c r="U24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1911,23 +2406,32 @@
       <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" t="s">
-        <v>27</v>
-      </c>
-      <c r="M25" t="s">
-        <v>27</v>
-      </c>
-      <c r="O25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" t="s">
+        <v>27</v>
+      </c>
+      <c r="U25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1937,20 +2441,26 @@
       <c r="C26" t="s">
         <v>27</v>
       </c>
-      <c r="E26" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" t="s">
-        <v>27</v>
-      </c>
-      <c r="M26" t="s">
-        <v>27</v>
-      </c>
-      <c r="O26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1960,16 +2470,22 @@
       <c r="C27" t="s">
         <v>27</v>
       </c>
-      <c r="E27" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" t="s">
-        <v>27</v>
-      </c>
-      <c r="M27" t="s">
-        <v>27</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P27" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1981,19 +2497,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S1" activeCellId="3" sqref="F1:F1048576 L1:L1048576 P1:P1048576 S1:S1048576"/>
+      <selection activeCell="Q2" sqref="Q2:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.33203125" customWidth="1"/>
+    <col min="2" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2004,43 +2520,61 @@
         <v>59</v>
       </c>
       <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>70</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>67</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -2056,13 +2590,13 @@
       <c r="E2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
+      <c r="F2" t="s">
         <v>27</v>
       </c>
       <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>27</v>
       </c>
       <c r="M2" t="s">
@@ -2074,8 +2608,17 @@
       <c r="O2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -2121,8 +2664,26 @@
       <c r="O3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -2168,8 +2729,26 @@
       <c r="O4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -2215,8 +2794,26 @@
       <c r="O5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -2262,8 +2859,26 @@
       <c r="O6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -2309,8 +2924,26 @@
       <c r="O7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2356,8 +2989,26 @@
       <c r="O8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -2403,8 +3054,26 @@
       <c r="O9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -2448,6 +3117,24 @@
         <v>27</v>
       </c>
       <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2458,20 +3145,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7:U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" customWidth="1"/>
+    <col min="2" max="4" width="9" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2482,43 +3169,61 @@
         <v>59</v>
       </c>
       <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>62</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>66</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>70</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>63</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>64</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>67</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -2564,8 +3269,26 @@
       <c r="O2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -2611,8 +3334,26 @@
       <c r="O3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2658,8 +3399,26 @@
       <c r="O4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -2705,8 +3464,26 @@
       <c r="O5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2752,8 +3529,26 @@
       <c r="O6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2763,7 +3558,7 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="I7" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="J7" t="s">
@@ -2772,14 +3567,17 @@
       <c r="K7" t="s">
         <v>27</v>
       </c>
-      <c r="N7" t="s">
+      <c r="L7" t="s">
         <v>27</v>
       </c>
       <c r="O7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2789,7 +3587,7 @@
       <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="I8" t="s">
+      <c r="D8" t="s">
         <v>27</v>
       </c>
       <c r="J8" t="s">
@@ -2798,14 +3596,17 @@
       <c r="K8" t="s">
         <v>27</v>
       </c>
-      <c r="N8" t="s">
+      <c r="L8" t="s">
         <v>27</v>
       </c>
       <c r="O8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -2851,8 +3652,26 @@
       <c r="O9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2898,8 +3717,26 @@
       <c r="O10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -2945,8 +3782,26 @@
       <c r="O11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" t="s">
+        <v>27</v>
+      </c>
+      <c r="U11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -2992,8 +3847,26 @@
       <c r="O12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -3037,6 +3910,24 @@
         <v>27</v>
       </c>
       <c r="O13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T13" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" t="s">
         <v>27</v>
       </c>
     </row>
